--- a/biology/Botanique/Whitfieldia_elongata/Whitfieldia_elongata.xlsx
+++ b/biology/Botanique/Whitfieldia_elongata/Whitfieldia_elongata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Whitfieldia elongata est une espèce de plantes herbacées à fleurs de la famille des Acanthaceae originaire d'Afrique tropicale.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut mesurer jusqu’à 2,5 mètres de haut. 
 On le retrouve principalement en Angola, au Mozambique, au sud du Congo et au Cameroun. 
-Ses feuilles peuvent mesurer jusqu’à 20 cm de long sur 7 cm de large, finement pointillées sur la face supérieure. Les pétioles peuvent être longs d’1 cm environ. Le calice quant à lui peut atteindre 2,5 cm. La corolle est blanche, les lobes sont doux avec de petits poils blancs, pas de glande. La capsule de 0,5 cm de long peut contenir 4 graines glabres[2]. 
+Ses feuilles peuvent mesurer jusqu’à 20 cm de long sur 7 cm de large, finement pointillées sur la face supérieure. Les pétioles peuvent être longs d’1 cm environ. Le calice quant à lui peut atteindre 2,5 cm. La corolle est blanche, les lobes sont doux avec de petits poils blancs, pas de glande. La capsule de 0,5 cm de long peut contenir 4 graines glabres. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une incertitude subsiste quant à l'existence d'une autre espèce de Whitfieldia elongata : Whitfieldia elongata C.B.Clarke[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une incertitude subsiste quant à l'existence d'une autre espèce de Whitfieldia elongata : Whitfieldia elongata C.B.Clarke,.
 </t>
         </is>
       </c>
